--- a/public/sampleExcel/validationSample.xlsx
+++ b/public/sampleExcel/validationSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParimiSandeep\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDD12E0-44CE-495D-891F-C4F4262D0931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841751AE-FDD6-4C3E-B54D-CC8D2E545F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24255" yWindow="3705" windowWidth="21600" windowHeight="11175" xr2:uid="{032DC981-0FA4-4B04-9D76-DF66EAF57A75}"/>
+    <workbookView xWindow="-11835" yWindow="3375" windowWidth="19185" windowHeight="10065" xr2:uid="{032DC981-0FA4-4B04-9D76-DF66EAF57A75}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation" sheetId="1" r:id="rId1"/>
@@ -36,27 +36,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>credentialID</t>
   </si>
   <si>
-    <t>aicertsissues7232</t>
-  </si>
-  <si>
-    <t>aicertsissues7229</t>
-  </si>
-  <si>
-    <t>aicertsissues7234</t>
-  </si>
-  <si>
-    <t>aicertsissues7235</t>
-  </si>
-  <si>
-    <t>aicertsissues7236</t>
-  </si>
-  <si>
-    <t>aicertsissues17232</t>
+    <t>G9X4L6G8P2N3</t>
+  </si>
+  <si>
+    <t>K7B5D1RH36W8</t>
+  </si>
+  <si>
+    <t>M3Y2Q5B6Z9A7</t>
+  </si>
+  <si>
+    <t>T5V4U32HN8C1</t>
+  </si>
+  <si>
+    <t>J8L7XK26B9P4</t>
+  </si>
+  <si>
+    <t>Q1A27WW3E4R5</t>
+  </si>
+  <si>
+    <t>C6D7X8W8Z9L5</t>
+  </si>
+  <si>
+    <t>P4N34GM2Y1A6</t>
+  </si>
+  <si>
+    <t>V5T6U7H7R8W3</t>
+  </si>
+  <si>
+    <t>Z2X1L9KM38B7</t>
+  </si>
+  <si>
+    <t>A3P4N58SY6Q7</t>
+  </si>
+  <si>
+    <t>B9X89SL7K6M5</t>
+  </si>
+  <si>
+    <t>R2W1E4Q2E3A8</t>
+  </si>
+  <si>
+    <t>N7P6H4M5Y4L3</t>
+  </si>
+  <si>
+    <t>X8C9B7Y7L6A2</t>
+  </si>
+  <si>
+    <t>D5R0D4Q3W2T1</t>
+  </si>
+  <si>
+    <t>K9L825X7P6N4</t>
+  </si>
+  <si>
+    <t>M3Y2A1C1H5D7</t>
+  </si>
+  <si>
+    <t>Q6R5W49DE3A9</t>
+  </si>
+  <si>
+    <t>P8N77GM6Y4L3</t>
+  </si>
+  <si>
+    <t>T1U2V2H3W4R5</t>
+  </si>
+  <si>
+    <t>X7K6B6E5L4A3</t>
+  </si>
+  <si>
+    <t>C9D8R8F7Q6W5</t>
+  </si>
+  <si>
+    <t>A2P10DN4M3Y8</t>
+  </si>
+  <si>
+    <t>L7X6K5B6Y4D3</t>
+  </si>
+  <si>
+    <t>R9W8N4E7Q6A5</t>
+  </si>
+  <si>
+    <t>M3Y2P14SN4C7</t>
+  </si>
+  <si>
+    <t>Q6R5W8T4E3T9</t>
+  </si>
+  <si>
+    <t>B8X7K4C6L5A4</t>
+  </si>
+  <si>
+    <t>N2P1M4Y0K3L8</t>
+  </si>
+  <si>
+    <t>QW7L2K9B5X3M8</t>
+  </si>
+  <si>
+    <t>A4P3N6Y1R8V7W5</t>
+  </si>
+  <si>
+    <t>C9D2X1L7K6B5A3</t>
+  </si>
+  <si>
+    <t>M8Y5P4N3Q6R2W1</t>
+  </si>
+  <si>
+    <t>T7U4V3W2R1X9K8</t>
+  </si>
+  <si>
+    <t>B6X5L4K3A2D7C9</t>
+  </si>
+  <si>
+    <t>R1W8E7Q6A5M3Y2</t>
+  </si>
+  <si>
+    <t>P9N8M7Y6L5K4X3</t>
+  </si>
+  <si>
+    <t>Q2R1W4E3T9A8B7</t>
+  </si>
+  <si>
+    <t>N5P4M3Y2L1K8X7</t>
+  </si>
+  <si>
+    <t>X6K5B4L3A2D9C8</t>
+  </si>
+  <si>
+    <t>A7P6N5M4Y3L2K1</t>
   </si>
 </sst>
 </file>
@@ -420,13 +528,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E4FA75-F7E1-40F3-B328-BE1BDA977D88}">
   <dimension ref="A1:D1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
@@ -481,223 +589,253 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
